--- a/artfynd/A 15122-2020.xlsx
+++ b/artfynd/A 15122-2020.xlsx
@@ -3665,7 +3665,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111363042</v>
+        <v>111363036</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3705,10 +3705,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>590767.8557530388</v>
+        <v>590784.7419292277</v>
       </c>
       <c r="R28" t="n">
-        <v>6985781.634191129</v>
+        <v>6985796.657093059</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3777,10 +3777,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111363040</v>
+        <v>111363041</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3793,21 +3793,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3817,10 +3817,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>590846.7337154552</v>
+        <v>590920.6519874674</v>
       </c>
       <c r="R29" t="n">
-        <v>6985549.62329052</v>
+        <v>6985740.419382945</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111363036</v>
+        <v>111363042</v>
       </c>
       <c r="B30" t="n">
         <v>96348</v>
@@ -3929,10 +3929,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>590784.7419292277</v>
+        <v>590767.8557530388</v>
       </c>
       <c r="R30" t="n">
-        <v>6985796.657093059</v>
+        <v>6985781.634191129</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4113,10 +4113,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111363041</v>
+        <v>111363037</v>
       </c>
       <c r="B32" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4125,25 +4125,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4153,10 +4153,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>590920.6519874674</v>
+        <v>590869.45745891</v>
       </c>
       <c r="R32" t="n">
-        <v>6985740.419382945</v>
+        <v>6985763.548076616</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4225,10 +4225,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111363037</v>
+        <v>111363040</v>
       </c>
       <c r="B33" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4237,25 +4237,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4265,10 +4265,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>590869.45745891</v>
+        <v>590846.7337154552</v>
       </c>
       <c r="R33" t="n">
-        <v>6985763.548076616</v>
+        <v>6985549.62329052</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>

--- a/artfynd/A 15122-2020.xlsx
+++ b/artfynd/A 15122-2020.xlsx
@@ -3665,7 +3665,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111363036</v>
+        <v>111363037</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3705,10 +3705,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>590784.7419292277</v>
+        <v>590869.45745891</v>
       </c>
       <c r="R28" t="n">
-        <v>6985796.657093059</v>
+        <v>6985763.548076616</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111363042</v>
+        <v>111363036</v>
       </c>
       <c r="B30" t="n">
         <v>96348</v>
@@ -3929,10 +3929,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>590767.8557530388</v>
+        <v>590784.7419292277</v>
       </c>
       <c r="R30" t="n">
-        <v>6985781.634191129</v>
+        <v>6985796.657093059</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4001,10 +4001,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111363038</v>
+        <v>111363040</v>
       </c>
       <c r="B31" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4013,25 +4013,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4041,10 +4041,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>590741.4330251076</v>
+        <v>590846.7337154552</v>
       </c>
       <c r="R31" t="n">
-        <v>6985602.172479901</v>
+        <v>6985549.62329052</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111363037</v>
+        <v>111363038</v>
       </c>
       <c r="B32" t="n">
         <v>96348</v>
@@ -4153,10 +4153,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>590869.45745891</v>
+        <v>590741.4330251076</v>
       </c>
       <c r="R32" t="n">
-        <v>6985763.548076616</v>
+        <v>6985602.172479901</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4225,10 +4225,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111363040</v>
+        <v>111363042</v>
       </c>
       <c r="B33" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4237,25 +4237,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4265,10 +4265,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>590846.7337154552</v>
+        <v>590767.8557530388</v>
       </c>
       <c r="R33" t="n">
-        <v>6985549.62329052</v>
+        <v>6985781.634191129</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>

--- a/artfynd/A 15122-2020.xlsx
+++ b/artfynd/A 15122-2020.xlsx
@@ -3665,7 +3665,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111363037</v>
+        <v>111363036</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3705,10 +3705,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>590869.45745891</v>
+        <v>590784.7419292277</v>
       </c>
       <c r="R28" t="n">
-        <v>6985763.548076616</v>
+        <v>6985796.657093059</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3777,10 +3777,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111363041</v>
+        <v>111363040</v>
       </c>
       <c r="B29" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3793,21 +3793,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3817,10 +3817,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>590920.6519874674</v>
+        <v>590846.7337154552</v>
       </c>
       <c r="R29" t="n">
-        <v>6985740.419382945</v>
+        <v>6985549.62329052</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111363036</v>
+        <v>111363037</v>
       </c>
       <c r="B30" t="n">
         <v>96348</v>
@@ -3929,10 +3929,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>590784.7419292277</v>
+        <v>590869.45745891</v>
       </c>
       <c r="R30" t="n">
-        <v>6985796.657093059</v>
+        <v>6985763.548076616</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4001,10 +4001,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111363040</v>
+        <v>111363042</v>
       </c>
       <c r="B31" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4013,25 +4013,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4041,10 +4041,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>590846.7337154552</v>
+        <v>590767.8557530388</v>
       </c>
       <c r="R31" t="n">
-        <v>6985549.62329052</v>
+        <v>6985781.634191129</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4113,10 +4113,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111363038</v>
+        <v>111363041</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4125,25 +4125,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4153,10 +4153,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>590741.4330251076</v>
+        <v>590920.6519874674</v>
       </c>
       <c r="R32" t="n">
-        <v>6985602.172479901</v>
+        <v>6985740.419382945</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111363042</v>
+        <v>111363038</v>
       </c>
       <c r="B33" t="n">
         <v>96348</v>
@@ -4265,10 +4265,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>590767.8557530388</v>
+        <v>590741.4330251076</v>
       </c>
       <c r="R33" t="n">
-        <v>6985781.634191129</v>
+        <v>6985602.172479901</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>

--- a/artfynd/A 15122-2020.xlsx
+++ b/artfynd/A 15122-2020.xlsx
@@ -3665,10 +3665,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111363036</v>
+        <v>111363041</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3677,25 +3677,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3705,10 +3705,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>590784.7419292277</v>
+        <v>590920.6519874674</v>
       </c>
       <c r="R28" t="n">
-        <v>6985796.657093059</v>
+        <v>6985740.419382945</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3777,10 +3777,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111363040</v>
+        <v>111363038</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3789,25 +3789,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3817,10 +3817,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>590846.7337154552</v>
+        <v>590741.4330251076</v>
       </c>
       <c r="R29" t="n">
-        <v>6985549.62329052</v>
+        <v>6985602.172479901</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3889,10 +3889,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111363037</v>
+        <v>111363040</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3901,25 +3901,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3929,10 +3929,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>590869.45745891</v>
+        <v>590846.7337154552</v>
       </c>
       <c r="R30" t="n">
-        <v>6985763.548076616</v>
+        <v>6985549.62329052</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111363042</v>
+        <v>111363036</v>
       </c>
       <c r="B31" t="n">
         <v>96348</v>
@@ -4041,10 +4041,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>590767.8557530388</v>
+        <v>590784.7419292277</v>
       </c>
       <c r="R31" t="n">
-        <v>6985781.634191129</v>
+        <v>6985796.657093059</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4113,10 +4113,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111363041</v>
+        <v>111363042</v>
       </c>
       <c r="B32" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4125,25 +4125,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4153,10 +4153,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>590920.6519874674</v>
+        <v>590767.8557530388</v>
       </c>
       <c r="R32" t="n">
-        <v>6985740.419382945</v>
+        <v>6985781.634191129</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111363038</v>
+        <v>111363037</v>
       </c>
       <c r="B33" t="n">
         <v>96348</v>
@@ -4265,10 +4265,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>590741.4330251076</v>
+        <v>590869.45745891</v>
       </c>
       <c r="R33" t="n">
-        <v>6985602.172479901</v>
+        <v>6985763.548076616</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
